--- a/nomenclatue_expansion_board_WarP7.xlsx
+++ b/nomenclatue_expansion_board_WarP7.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Carte_extension\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alois\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E1A055A-E9C5-4171-ADD0-1FC7ECAB12C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875F095-A016-4AB4-A508-E1B9FBD83578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2055" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Colonne1</t>
   </si>
@@ -118,25 +125,70 @@
     <t>MCP255-E/SN</t>
   </si>
   <si>
-    <t>Quart 10 MHz</t>
-  </si>
-  <si>
     <t>Quart 32.768 Khz</t>
   </si>
   <si>
-    <t xml:space="preserve">Reseau de resistance 150 R </t>
-  </si>
-  <si>
-    <t>Condensateur 22pF, 9pF, 10µF, 100nF</t>
-  </si>
-  <si>
-    <t>Resistance 10,120,22K,100K</t>
-  </si>
-  <si>
-    <t>Bornier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A définir </t>
+    <t>ABRACON</t>
+  </si>
+  <si>
+    <t>ABS07-1-20-32.768KHZ-T</t>
+  </si>
+  <si>
+    <t>Quart 8 MHz</t>
+  </si>
+  <si>
+    <t>2832065RL</t>
+  </si>
+  <si>
+    <t>IDQ FREQUENCY PRODUCT</t>
+  </si>
+  <si>
+    <t>LFXTAL056567</t>
+  </si>
+  <si>
+    <t>Resistance 22K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance 100 R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance 10 R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance 100 K </t>
+  </si>
+  <si>
+    <t>Condensateur 6pF</t>
+  </si>
+  <si>
+    <t>Condensateur 18pF</t>
+  </si>
+  <si>
+    <t>Condensateur 18nF</t>
+  </si>
+  <si>
+    <t>Condensateur 100nF</t>
+  </si>
+  <si>
+    <t>Condensateur 10uF</t>
+  </si>
+  <si>
+    <t>Header 6 pins</t>
+  </si>
+  <si>
+    <t>Header 3 pins</t>
+  </si>
+  <si>
+    <t>Header 2 pins</t>
+  </si>
+  <si>
+    <t>LED Bleu vert</t>
+  </si>
+  <si>
+    <t>Header 8 pins</t>
+  </si>
+  <si>
+    <t>Header 8 pins femelle</t>
   </si>
 </sst>
 </file>
@@ -147,7 +199,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +238,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,11 +268,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -254,12 +313,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" indent="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -275,13 +341,23 @@
       <alignment horizontal="left" indent="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" indent="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" indent="0"/>
@@ -342,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:M14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:M25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonne1" dataDxfId="12"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom du produit" dataDxfId="11"/>
@@ -351,17 +427,19 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Référence du fabricant" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nom du fournisseur" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Référence du fournisseur" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantité" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantité" dataDxfId="6">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Etat de la commande]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Prenom etudiant" dataDxfId="5"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Etat de la commande" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Prix unitaire H.T. (€)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Total H.T (€)" dataDxfId="1">
-      <calculatedColumnFormula>J2*G2</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Total H.T (€)" dataDxfId="2">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Prix TTC (€)" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Prix TTC (€)" dataDxfId="1">
       <calculatedColumnFormula>K2*1.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Commentaire" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Commentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +822,7 @@
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="17">
         <v>2534283</v>
       </c>
       <c r="G2" s="7">
@@ -756,17 +834,17 @@
         <v>0.40699999999999997</v>
       </c>
       <c r="K2" s="7">
-        <f t="shared" ref="K2:K33" si="0">J2*G2</f>
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
         <v>0.40699999999999997</v>
       </c>
       <c r="L2" s="9">
-        <f t="shared" ref="L2:L33" si="1">K2*1.2</f>
+        <f t="shared" ref="L2:L10" si="0">K2*1.2</f>
         <v>0.48839999999999995</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="6">
-        <f>SUM(L2:L52)</f>
-        <v>10.538399999999999</v>
+        <f>SUM(L2:L62)</f>
+        <v>26.921880000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -795,11 +873,11 @@
         <v>2.09</v>
       </c>
       <c r="K3" s="7">
-        <f>J3*G3</f>
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
         <v>2.09</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5079999999999996</v>
       </c>
       <c r="M3" s="7"/>
@@ -819,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7">
-        <v>2396741</v>
+        <v>1854077</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -827,15 +905,15 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="13">
-        <v>0.47599999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="K4" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.436</v>
+      </c>
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" si="1"/>
-        <v>0.57119999999999993</v>
+        <v>0.5232</v>
       </c>
       <c r="M4" s="7"/>
     </row>
@@ -865,11 +943,11 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="K5" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="1"/>
         <v>1.1567999999999998</v>
       </c>
       <c r="M5" s="7"/>
@@ -900,11 +978,11 @@
         <v>2.92</v>
       </c>
       <c r="K6" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>2.92</v>
+      </c>
+      <c r="L6" s="9">
         <f t="shared" si="0"/>
-        <v>2.92</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="1"/>
         <v>3.504</v>
       </c>
       <c r="M6" s="7"/>
@@ -935,11 +1013,11 @@
         <v>0.745</v>
       </c>
       <c r="K7" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.745</v>
+      </c>
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>0.745</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="1"/>
         <v>0.89400000000000002</v>
       </c>
       <c r="M7" s="7"/>
@@ -970,11 +1048,11 @@
         <v>1.18</v>
       </c>
       <c r="K8" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>1.18</v>
+      </c>
+      <c r="L8" s="9">
         <f t="shared" si="0"/>
-        <v>1.18</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="1"/>
         <v>1.4159999999999999</v>
       </c>
       <c r="M8" s="7"/>
@@ -982,316 +1060,536 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="14">
+        <v>1.06</v>
+      </c>
       <c r="K9" s="7">
-        <f>J9*G9</f>
-        <v>0</v>
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>1.06</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1.272</v>
+      </c>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2467864</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="13">
+        <v>0.56599999999999995</v>
+      </c>
       <c r="K10" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="L10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>0.67919999999999991</v>
+      </c>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2447607</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12">
-        <f>J11*G11</f>
-        <v>0</v>
+      <c r="J11" s="13">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K11" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>1.9E-2</v>
       </c>
       <c r="L11" s="9">
         <f>K11*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>2.2799999999999997E-2</v>
+      </c>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2447556</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12">
-        <f>J12*G12</f>
-        <v>0</v>
+      <c r="J12" s="13">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="K12" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="L12" s="9">
         <f>K12*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.1639999999999999E-2</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1469860</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12">
-        <f>J13*G13</f>
-        <v>0</v>
+      <c r="J13" s="13">
+        <v>3.44E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>3.44E-2</v>
       </c>
       <c r="L13" s="9">
         <f>K13*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.1279999999999997E-2</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1738946</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12">
-        <f>J14*G14</f>
-        <v>0</v>
+      <c r="J14" s="14">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="L14" s="9">
         <f>K14*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.10548</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1759185</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
+      <c r="J15" s="13">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.1166</v>
+      </c>
+      <c r="L15" s="9">
+        <f>K15*1.2</f>
+        <v>0.13991999999999999</v>
+      </c>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1759194</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
+      <c r="J16" s="13">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" ref="L16:L25" si="1">K16*1.2</f>
+        <v>0.15551999999999999</v>
+      </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1759251</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
+      <c r="J17" s="14">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="1"/>
+        <v>9.5039999999999999E-2</v>
+      </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2522443</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="9"/>
+      <c r="J18" s="14">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0600000000000001E-2</v>
+      </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9402144</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="9"/>
+      <c r="J19" s="14">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K19" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.41</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.49199999999999994</v>
+      </c>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9733302</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="9"/>
+      <c r="J20" s="14">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K20" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.48839999999999995</v>
+      </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="17">
+        <v>9733450</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="9"/>
+      <c r="J21" s="14">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="K21" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.67799999999999994</v>
+      </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1593463</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="9"/>
+      <c r="J22" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="K22" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.78</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.93599999999999994</v>
+      </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="17">
+        <v>9733345</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="9"/>
+      <c r="J23" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K23" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="1"/>
+        <v>2.6160000000000001</v>
+      </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2751311</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="9"/>
+      <c r="J24" s="13">
+        <v>0.222</v>
+      </c>
+      <c r="K24" s="7">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>0.222</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.26639999999999997</v>
+      </c>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2614990</v>
+      </c>
+      <c r="G25" s="7">
+        <v>8</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="15"/>
+      <c r="J25" s="13">
+        <v>0.872</v>
+      </c>
+      <c r="K25" s="12">
+        <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
+        <v>6.976</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="1"/>
+        <v>8.3712</v>
+      </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1319,8 +1617,8 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="12"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="9"/>
       <c r="M27" s="7"/>
     </row>
@@ -1334,8 +1632,8 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="12"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="9"/>
       <c r="M28" s="7"/>
     </row>
@@ -1345,7 +1643,6 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1364,9 +1661,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1375,163 +1672,163 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="10"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="16"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="16"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="16"/>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="16"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="16"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="16"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="16"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="16"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="16"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="16"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1552,11 +1849,11 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1687,11 +1984,11 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -1717,11 +2014,11 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -1732,11 +2029,11 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -1747,11 +2044,11 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -1759,38 +2056,189 @@
       <c r="L56" s="16"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/nomenclatue_expansion_board_WarP7.xlsx
+++ b/nomenclatue_expansion_board_WarP7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alois\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alois\OneDrive\Documents\GitHub\Expansion-Board-WaRP7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875F095-A016-4AB4-A508-E1B9FBD83578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CA8305-3321-4BA1-B658-9A2335AF881B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="6">
         <f>SUM(L2:L62)</f>
-        <v>26.921880000000002</v>
+        <v>27.765720000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>1738946</v>
       </c>
       <c r="G14" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="K14" s="7">
         <f>Tableau1[[#This Row],[Quantité]]*Tableau1[[#This Row],[Prix unitaire H.T. (€)]]</f>
-        <v>8.7900000000000006E-2</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="L14" s="9">
         <f>K14*1.2</f>
-        <v>0.10548</v>
+        <v>0.94931999999999994</v>
       </c>
       <c r="M14" s="7"/>
     </row>
